--- a/OnBoard/output/trust/catch/Catch_Trust_4.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_4.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -446,10 +446,10 @@
         </is>
       </c>
       <c r="G2">
-        <v>0.579</v>
+        <v>0.465</v>
       </c>
       <c r="H2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="G3">
-        <v>6.425</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -519,19 +519,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Buglossidium luteum</t>
+          <t>Callinectes sapidus</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>CALLSAP</t>
         </is>
       </c>
       <c r="G4">
-        <v>0.014</v>
+        <v>0.781</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -560,19 +560,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Callinectes sapidus</t>
+          <t>Chelidonichthys lucernus</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CALLSAP</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="G5">
-        <v>1.332</v>
+        <v>0.622</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -601,19 +601,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Chelidonichthys lucernus</t>
+          <t>Gobius niger</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="G6">
-        <v>0.892</v>
+        <v>0.057</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -642,19 +642,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Gobius niger</t>
+          <t>Hexaplex trunculus</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>HEXATRU</t>
         </is>
       </c>
       <c r="G7">
-        <v>0.057</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -683,19 +683,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Hexaplex trunculus</t>
+          <t>Sepia officinalis</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>HEXATRU</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="G8">
-        <v>19.025</v>
+        <v>2.103</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -724,19 +724,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Melicertus kerathurus</t>
+          <t>Solea solea</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="G9">
-        <v>0.021</v>
+        <v>3.419</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -760,24 +760,24 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sepia officinalis</t>
+          <t>Arnoglossus laterna</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="G10">
-        <v>2.603</v>
+        <v>0.199</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -801,24 +801,24 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Solea solea</t>
+          <t>Bolinus brandaris</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MUREBRA</t>
         </is>
       </c>
       <c r="G11">
-        <v>3.419</v>
+        <v>2.438</v>
       </c>
       <c r="H11">
-        <v>63</v>
+        <v>480</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -842,24 +842,24 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Squilla mantis</t>
+          <t>Buglossidium luteum</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="G12">
-        <v>0.03</v>
+        <v>0.014</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -888,19 +888,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Arnoglossus laterna</t>
+          <t>Callinectes sapidus</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>CALLSAP</t>
         </is>
       </c>
       <c r="G13">
-        <v>0.08500000000000001</v>
+        <v>0.551</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -929,19 +929,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Bolinus brandaris</t>
+          <t>Chelidonichthys lucernus</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>MUREBRA</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="G14">
-        <v>2.438</v>
+        <v>0.27</v>
       </c>
       <c r="H14">
-        <v>480</v>
+        <v>2</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -1011,19 +1011,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Pteromylaeus (Myliobatis) bovinus (bovina)</t>
+          <t>Melicertus kerathurus</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>PTEOBOV</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="G16">
-        <v>2.1</v>
+        <v>0.021</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1052,16 +1052,16 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Solea aegyptiaca</t>
+          <t>Pteromylaeus (Myliobatis) bovinus (bovina)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>SOLEAEG</t>
+          <t>PTEOBOV</t>
         </is>
       </c>
       <c r="G17">
-        <v>0.238</v>
+        <v>2.1</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1093,19 +1093,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Solea solea</t>
+          <t>Sepia officinalis</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="G18">
-        <v>8.710000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H18">
-        <v>144</v>
+        <v>3</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1134,22 +1134,22 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Algae nd</t>
+          <t>Solea aegyptiaca</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ALGAE</t>
+          <t>SOLEAEG</t>
         </is>
       </c>
       <c r="G19">
-        <v>1.407</v>
+        <v>0.238</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>43.88025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1175,22 +1175,22 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Anadara kagoshimensis</t>
+          <t>Solea solea</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>ANADKAG</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="G20">
-        <v>0.033</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="I20">
-        <v>43.88025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1216,22 +1216,22 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Anadara transversa</t>
+          <t>Squilla mantis</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ANADTRA</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="G21">
-        <v>0.001</v>
+        <v>0.03</v>
       </c>
       <c r="H21">
         <v>3</v>
       </c>
       <c r="I21">
-        <v>43.88025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1257,22 +1257,22 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Antalis inaequicostata</t>
+          <t>Algae nd</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>DENTINA</t>
+          <t>ALGAE</t>
         </is>
       </c>
       <c r="G22">
-        <v>0.001</v>
+        <v>1.407</v>
       </c>
       <c r="H22">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="I22">
-        <v>43.88025</v>
+        <v>47.0615</v>
       </c>
     </row>
     <row r="23">
@@ -1298,22 +1298,22 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Aphroditidae n.d.</t>
+          <t>Anadara kagoshimensis</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>APHRND1</t>
+          <t>ANADKAG</t>
         </is>
       </c>
       <c r="G23">
-        <v>0.001</v>
+        <v>0.033</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>43.88025</v>
+        <v>47.0615</v>
       </c>
     </row>
     <row r="24">
@@ -1339,22 +1339,22 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Aporrhais pespelecani</t>
+          <t>Anadara transversa</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>APORPES</t>
+          <t>ANADTRA</t>
         </is>
       </c>
       <c r="G24">
-        <v>0.035</v>
+        <v>0.001</v>
       </c>
       <c r="H24">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I24">
-        <v>43.88025</v>
+        <v>47.0615</v>
       </c>
     </row>
     <row r="25">
@@ -1380,22 +1380,22 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Ascidiella aspersa</t>
+          <t>Antalis inaequicostata</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>ASCIASP</t>
+          <t>DENTINA</t>
         </is>
       </c>
       <c r="G25">
-        <v>0.012</v>
+        <v>0.001</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="I25">
-        <v>43.88025</v>
+        <v>47.0615</v>
       </c>
     </row>
     <row r="26">
@@ -1421,22 +1421,22 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Astropecten irregularis</t>
+          <t>Aphroditidae n.d.</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>ASTRIRR</t>
+          <t>APHRND1</t>
         </is>
       </c>
       <c r="G26">
-        <v>0.42</v>
+        <v>0.001</v>
       </c>
       <c r="H26">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>43.88025</v>
+        <v>47.0615</v>
       </c>
     </row>
     <row r="27">
@@ -1462,22 +1462,22 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Biological discard</t>
+          <t>Aporrhais pespelecani</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>BIOLDIS</t>
+          <t>APORPES</t>
         </is>
       </c>
       <c r="G27">
-        <v>0.135</v>
+        <v>0.035</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I27">
-        <v>43.88025</v>
+        <v>47.0615</v>
       </c>
     </row>
     <row r="28">
@@ -1503,22 +1503,22 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Chlamys varia</t>
+          <t>Ascidiella aspersa</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>CHLAVAR</t>
+          <t>ASCIASP</t>
         </is>
       </c>
       <c r="G28">
-        <v>0.001</v>
+        <v>0.012</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I28">
-        <v>43.88025</v>
+        <v>47.0615</v>
       </c>
     </row>
     <row r="29">
@@ -1544,22 +1544,22 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Corbula gibba</t>
+          <t>Astropecten irregularis</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>CORBGIB</t>
+          <t>ASTRIRR</t>
         </is>
       </c>
       <c r="G29">
-        <v>0.001</v>
+        <v>0.42</v>
       </c>
       <c r="H29">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="I29">
-        <v>43.88025</v>
+        <v>47.0615</v>
       </c>
     </row>
     <row r="30">
@@ -1585,22 +1585,22 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Eggs of Murex</t>
+          <t>Biological discard</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>EGGSMUR</t>
+          <t>BIOLDIS</t>
         </is>
       </c>
       <c r="G30">
-        <v>0.003</v>
+        <v>0.135</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I30">
-        <v>43.88025</v>
+        <v>47.0615</v>
       </c>
     </row>
     <row r="31">
@@ -1626,12 +1626,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Eunice vittata</t>
+          <t>Chlamys varia</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>EUNIVIT</t>
+          <t>CHLAVAR</t>
         </is>
       </c>
       <c r="G31">
@@ -1641,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="I31">
-        <v>43.88025</v>
+        <v>47.0615</v>
       </c>
     </row>
     <row r="32">
@@ -1667,22 +1667,22 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Eunicidae nd</t>
+          <t>Corbula gibba</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>EUNIND</t>
+          <t>CORBGIB</t>
         </is>
       </c>
       <c r="G32">
         <v>0.001</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I32">
-        <v>43.88025</v>
+        <v>47.0615</v>
       </c>
     </row>
     <row r="33">
@@ -1708,22 +1708,22 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Fustiaria rubescens</t>
+          <t>Eggs of Murex</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>FUSTRUB</t>
+          <t>EGGSMUR</t>
         </is>
       </c>
       <c r="G33">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="H33">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>43.88025</v>
+        <v>47.0615</v>
       </c>
     </row>
     <row r="34">
@@ -1749,12 +1749,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Ilia nucleus</t>
+          <t>Eunice vittata</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>ILIANUC</t>
+          <t>EUNIVIT</t>
         </is>
       </c>
       <c r="G34">
@@ -1764,7 +1764,7 @@
         <v>1</v>
       </c>
       <c r="I34">
-        <v>43.88025</v>
+        <v>47.0615</v>
       </c>
     </row>
     <row r="35">
@@ -1790,22 +1790,22 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Maldanidae nd</t>
+          <t>Eunicidae nd</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>MALDAND</t>
+          <t>EUNIND</t>
         </is>
       </c>
       <c r="G35">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>43.88025</v>
+        <v>47.0615</v>
       </c>
     </row>
     <row r="36">
@@ -1831,22 +1831,22 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Medorippe lanata</t>
+          <t>Fustiaria rubescens</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>MEDOLAN</t>
+          <t>FUSTRUB</t>
         </is>
       </c>
       <c r="G36">
-        <v>0.006</v>
+        <v>0.001</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="I36">
-        <v>43.88025</v>
+        <v>47.0615</v>
       </c>
     </row>
     <row r="37">
@@ -1872,22 +1872,22 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Nephtys hystricis</t>
+          <t>Ilia nucleus</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>NEPHHYS</t>
+          <t>ILIANUC</t>
         </is>
       </c>
       <c r="G37">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="H37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>43.88025</v>
+        <v>47.0615</v>
       </c>
     </row>
     <row r="38">
@@ -1913,22 +1913,22 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Nucula nitidosa</t>
+          <t>Maldanidae nd</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>NUCUNIT</t>
+          <t>MALDAND</t>
         </is>
       </c>
       <c r="G38">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38">
-        <v>43.88025</v>
+        <v>47.0615</v>
       </c>
     </row>
     <row r="39">
@@ -1954,22 +1954,22 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Ophiura ophiura</t>
+          <t>Medorippe lanata</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>OPHIOPH</t>
+          <t>MEDOLAN</t>
         </is>
       </c>
       <c r="G39">
-        <v>0.001</v>
+        <v>0.006</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39">
-        <v>43.88025</v>
+        <v>47.0615</v>
       </c>
     </row>
     <row r="40">
@@ -1995,12 +1995,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Polychaeta n.d. Tubes</t>
+          <t>Nephtys hystricis</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>TUBEPOL</t>
+          <t>NEPHHYS</t>
         </is>
       </c>
       <c r="G40">
@@ -2010,7 +2010,7 @@
         <v>5</v>
       </c>
       <c r="I40">
-        <v>43.88025</v>
+        <v>47.0615</v>
       </c>
     </row>
     <row r="41">
@@ -2036,22 +2036,22 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Schizaster canaliferus</t>
+          <t>Nucula nitidosa</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>SCHICAN</t>
+          <t>NUCUNIT</t>
         </is>
       </c>
       <c r="G41">
-        <v>0.056</v>
+        <v>0.001</v>
       </c>
       <c r="H41">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>43.88025</v>
+        <v>47.0615</v>
       </c>
     </row>
     <row r="42">
@@ -2077,22 +2077,22 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Shells NA</t>
+          <t>Ophiura ophiura</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>SHELLS</t>
+          <t>OPHIOPH</t>
         </is>
       </c>
       <c r="G42">
-        <v>0.08699999999999999</v>
+        <v>0.001</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>43.88025</v>
+        <v>47.0615</v>
       </c>
     </row>
     <row r="43">
@@ -2118,12 +2118,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Sternaspis scutata</t>
+          <t>Polychaeta n.d. Tubes</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>STERSCU</t>
+          <t>TUBEPOL</t>
         </is>
       </c>
       <c r="G43">
@@ -2133,7 +2133,7 @@
         <v>5</v>
       </c>
       <c r="I43">
-        <v>43.88025</v>
+        <v>47.0615</v>
       </c>
     </row>
     <row r="44">
@@ -2159,22 +2159,22 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Thyone fusus</t>
+          <t>Schizaster canaliferus</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>THYOFUS</t>
+          <t>SCHICAN</t>
         </is>
       </c>
       <c r="G44">
-        <v>0.001</v>
+        <v>0.056</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I44">
-        <v>43.88025</v>
+        <v>47.0615</v>
       </c>
     </row>
     <row r="45">
@@ -2200,22 +2200,22 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Turritella communis</t>
+          <t>Shells NA</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>TURRCOM</t>
+          <t>SHELLS</t>
         </is>
       </c>
       <c r="G45">
-        <v>0.318</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="H45">
-        <v>824</v>
+        <v>-1</v>
       </c>
       <c r="I45">
-        <v>43.88025</v>
+        <v>47.0615</v>
       </c>
     </row>
     <row r="46">
@@ -2241,22 +2241,145 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
+          <t>Sternaspis scutata</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>STERSCU</t>
+        </is>
+      </c>
+      <c r="G46">
+        <v>0.002</v>
+      </c>
+      <c r="H46">
+        <v>5</v>
+      </c>
+      <c r="I46">
+        <v>47.0615</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>SOLEMON2024</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Thyone fusus</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>THYOFUS</t>
+        </is>
+      </c>
+      <c r="G47">
+        <v>0.001</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <v>47.0615</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>SOLEMON2024</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Turritella communis</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>TURRCOM</t>
+        </is>
+      </c>
+      <c r="G48">
+        <v>0.318</v>
+      </c>
+      <c r="H48">
+        <v>824</v>
+      </c>
+      <c r="I48">
+        <v>47.0615</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>SOLEMON2024</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
           <t>Wood NA</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>WOOD</t>
         </is>
       </c>
-      <c r="G46">
+      <c r="G49">
         <v>1.001</v>
       </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>43.88025</v>
+      <c r="H49">
+        <v>-1</v>
+      </c>
+      <c r="I49">
+        <v>47.0615</v>
       </c>
     </row>
   </sheetData>
